--- a/docentes/Rodriguez Roman Marisol - Estadisticos 2020.xlsx
+++ b/docentes/Rodriguez Roman Marisol - Estadisticos 2020.xlsx
@@ -922,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -945,7 +945,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -968,7 +968,7 @@
         <v>12</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -991,7 +991,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1014,7 +1014,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1037,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1060,7 +1060,7 @@
         <v>12</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1083,7 +1083,7 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1106,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1129,7 +1129,7 @@
         <v>12</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Rodriguez Roman Marisol - Estadisticos 2020.xlsx
+++ b/docentes/Rodriguez Roman Marisol - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
   <si>
     <t>Mat</t>
   </si>
@@ -52,6 +52,9 @@
     <t>DESARROLLA APLICACIONES QUE SE EJECUTAN EN EL SERVIDOR</t>
   </si>
   <si>
+    <t>DESARROLLA APLICACIONES MÓVILES PARA ANDROID</t>
+  </si>
+  <si>
     <t>2APM</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>4APM</t>
   </si>
   <si>
+    <t>6APM</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
@@ -106,6 +112,12 @@
     <t>RODRIGUEZ</t>
   </si>
   <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
     <t>PONCE</t>
   </si>
   <si>
@@ -124,6 +136,9 @@
     <t>TZIZIHUA</t>
   </si>
   <si>
+    <t>ARENAS</t>
+  </si>
+  <si>
     <t>CASTRO</t>
   </si>
   <si>
@@ -133,6 +148,12 @@
     <t>GUERRA</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
     <t>MARITZA</t>
   </si>
   <si>
@@ -154,6 +175,9 @@
     <t>DORA LUZ</t>
   </si>
   <si>
+    <t>JOSUA</t>
+  </si>
+  <si>
     <t>EDUARDO</t>
   </si>
   <si>
@@ -161,6 +185,12 @@
   </si>
   <si>
     <t>JAVIER ANTONIO</t>
+  </si>
+  <si>
+    <t>MELANI DARIANA</t>
+  </si>
+  <si>
+    <t>PATRICIA MARLENE</t>
   </si>
 </sst>
 </file>
@@ -518,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -584,7 +614,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>23</v>
@@ -610,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>28</v>
@@ -629,6 +659,32 @@
       </c>
       <c r="H4">
         <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>40.91</v>
+      </c>
+      <c r="H5">
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +694,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -678,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -701,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>23</v>
@@ -724,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>28</v>
@@ -739,6 +795,29 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -749,7 +828,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -789,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -815,7 +894,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>23</v>
@@ -841,7 +920,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>28</v>
@@ -860,6 +939,32 @@
       </c>
       <c r="H4">
         <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>40.91</v>
+      </c>
+      <c r="H5">
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +974,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -881,25 +986,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -907,19 +1012,19 @@
         <v>20330051920356</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -930,19 +1035,19 @@
         <v>20330051920320</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -953,19 +1058,19 @@
         <v>20330051920322</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -976,19 +1081,19 @@
         <v>20330051920323</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -999,19 +1104,19 @@
         <v>20330051920324</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1022,19 +1127,19 @@
         <v>20330051920329</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1045,19 +1150,19 @@
         <v>20330051920335</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1065,45 +1170,45 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920343</v>
+        <v>18330051920366</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920381</v>
+        <v>20330051920343</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1111,24 +1216,93 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920332</v>
+        <v>20330051920381</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920332</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18330051920354</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920357</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Rodriguez Roman Marisol - Estadisticos 2020.xlsx
+++ b/docentes/Rodriguez Roman Marisol - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -83,114 +83,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>CANTELLAN</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>NAJERA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>GERARDO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>PONCE</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>MONTALVO</t>
-  </si>
-  <si>
-    <t>TZIZIHUA</t>
-  </si>
-  <si>
-    <t>ARENAS</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>MARITZA</t>
-  </si>
-  <si>
-    <t>DANIELA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>MARCOS</t>
-  </si>
-  <si>
-    <t>JESUS SAMUEL</t>
-  </si>
-  <si>
-    <t>ARIZBETH</t>
-  </si>
-  <si>
-    <t>JUAN GUILLERMO</t>
-  </si>
-  <si>
-    <t>DORA LUZ</t>
-  </si>
-  <si>
-    <t>JOSUA</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>EDGAR DANIEL</t>
-  </si>
-  <si>
-    <t>JAVIER ANTONIO</t>
-  </si>
-  <si>
-    <t>MELANI DARIANA</t>
-  </si>
-  <si>
-    <t>PATRICIA MARLENE</t>
   </si>
 </sst>
 </file>
@@ -594,19 +486,19 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -620,19 +512,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>39.13</v>
+        <v>65.22</v>
       </c>
       <c r="H3">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -646,19 +538,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>67.86</v>
+        <v>82.14</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -672,19 +564,19 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>40.91</v>
+        <v>77.27</v>
       </c>
       <c r="H5">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -740,16 +632,19 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -763,16 +658,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>56.52</v>
+      </c>
+      <c r="H3">
+        <v>6.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -786,16 +684,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>64.29000000000001</v>
+      </c>
+      <c r="H4">
+        <v>7.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -809,16 +710,19 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>72.73</v>
+      </c>
+      <c r="H5">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -874,19 +778,19 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H2">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -900,19 +804,19 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>39.13</v>
+        <v>65.22</v>
       </c>
       <c r="H3">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -926,19 +830,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>67.86</v>
+        <v>82.14</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -952,19 +856,19 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>40.91</v>
+        <v>77.27</v>
       </c>
       <c r="H5">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +878,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1007,305 +911,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920356</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920320</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920322</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920323</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920324</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920329</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920335</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920366</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920343</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920381</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920332</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920354</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>18330051920357</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Rodriguez Roman Marisol - Estadisticos 2020.xlsx
+++ b/docentes/Rodriguez Roman Marisol - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>Mat</t>
   </si>
@@ -83,6 +83,33 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>TZIZIHUA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t>DORA LUZ</t>
+  </si>
+  <si>
+    <t>PATRICIA MARLENE</t>
   </si>
 </sst>
 </file>
@@ -878,7 +905,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -911,6 +938,75 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920322</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920335</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920357</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Rodriguez Roman Marisol - Estadisticos 2020.xlsx
+++ b/docentes/Rodriguez Roman Marisol - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
   <si>
     <t>Mat</t>
   </si>
@@ -85,28 +85,64 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>BACILIO</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
     <t>BRAVO</t>
   </si>
   <si>
+    <t>VILLALBA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>TZIZIHUA</t>
+  </si>
+  <si>
+    <t>ATILANO</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
-    <t>TZIZIHUA</t>
-  </si>
-  <si>
     <t>REYES</t>
   </si>
   <si>
+    <t>ADAN</t>
+  </si>
+  <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
+    <t>ANGELA MONTSERRAT</t>
+  </si>
+  <si>
+    <t>DORA LUZ</t>
+  </si>
+  <si>
+    <t>YAIR</t>
+  </si>
+  <si>
     <t>MARCOS</t>
-  </si>
-  <si>
-    <t>DORA LUZ</t>
   </si>
   <si>
     <t>PATRICIA MARLENE</t>
@@ -905,7 +941,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -940,22 +976,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920322</v>
+        <v>20330051920337</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -963,22 +999,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920335</v>
+        <v>20330051920339</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -986,25 +1022,117 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920357</v>
+        <v>20330051920383</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920335</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920322</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920357</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
